--- a/docs/odh/obf-ResearchSubject.xlsx
+++ b/docs/odh/obf-ResearchSubject.xlsx
@@ -527,7 +527,7 @@
     <t>ResearchSubject.individual</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/odh/StructureDefinition/obf-Patient)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient)
 </t>
   </si>
   <si>
